--- a/3CM1_IS_Plan_de_riesgos_SYMONA.xlsx
+++ b/3CM1_IS_Plan_de_riesgos_SYMONA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>Aceptado</t>
   </si>
@@ -107,12 +107,6 @@
   </si>
   <si>
     <t>Describa las actividades dirigidas a evitar que el riesgo se dispare. Incluya claramente cómos y cuándos.</t>
-  </si>
-  <si>
-    <t>SYMONA</t>
-  </si>
-  <si>
-    <t>SVM</t>
   </si>
   <si>
     <t>La maestra Karina no pueda atendernos por falta de tiempo o sus horarios no coincidan con los de nosotros</t>
@@ -200,6 +194,15 @@
   </si>
   <si>
     <t>Que el compañero que este en dicha situación mejore el control de sus tiempos y documente su avance.</t>
+  </si>
+  <si>
+    <t>OJG</t>
+  </si>
+  <si>
+    <t>AMG</t>
+  </si>
+  <si>
+    <t>EARG</t>
   </si>
 </sst>
 </file>
@@ -820,43 +823,7 @@
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -1329,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1472,10 +1439,10 @@
         <v>42047</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>4</v>
@@ -1488,12 +1455,14 @@
         <v>3</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="36"/>
+        <v>35</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -1508,10 +1477,10 @@
         <v>42046</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>4</v>
@@ -1524,13 +1493,13 @@
         <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>1</v>
@@ -1554,10 +1523,10 @@
         <v>42047</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>4</v>
@@ -1570,13 +1539,13 @@
         <v>3</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1588,10 +1557,10 @@
         <v>42047</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>4</v>
@@ -1604,12 +1573,14 @@
         <v>6</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
@@ -1620,10 +1591,10 @@
         <v>42047</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>4</v>
@@ -1636,13 +1607,13 @@
         <v>3</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1654,10 +1625,10 @@
         <v>42047</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>5</v>
@@ -1670,13 +1641,13 @@
         <v>4</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1688,10 +1659,10 @@
         <v>42047</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>6</v>
@@ -1704,12 +1675,14 @@
         <v>1</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
@@ -1880,15 +1853,15 @@
     <mergeCell ref="I2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:H20">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="between">
       <formula>7</formula>
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="between">
       <formula>4</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>

--- a/3CM1_IS_Plan_de_riesgos_SYMONA.xlsx
+++ b/3CM1_IS_Plan_de_riesgos_SYMONA.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Aceptado</t>
   </si>
   <si>
-    <t>Recursos</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>Trasferido</t>
   </si>
   <si>
-    <t>Mitigado</t>
-  </si>
-  <si>
     <t>Fecha de identificación</t>
   </si>
   <si>
@@ -109,27 +103,6 @@
     <t>Describa las actividades dirigidas a evitar que el riesgo se dispare. Incluya claramente cómos y cuándos.</t>
   </si>
   <si>
-    <t>La maestra Karina no pueda atendernos por falta de tiempo o sus horarios no coincidan con los de nosotros</t>
-  </si>
-  <si>
-    <t>Que no se haya analizado correctamente el documento de requerimientos.</t>
-  </si>
-  <si>
-    <t>Los algoritmos necesarios no estarán bien creados y por consecuente los módulos no cumplirán el trabajo que el cliente desea.</t>
-  </si>
-  <si>
-    <t>Revisión del documento de requerimientos entre todo el equipo verificando las minutas de las juntas con el cliente.</t>
-  </si>
-  <si>
-    <t>Realizar nuevamente el documento de requerimientos hasta que cumpla las expectativas del cliente.</t>
-  </si>
-  <si>
-    <t>Verificar los horarios de la maestra con los nuestros hasta coincidir tiempo libre para planear citas.</t>
-  </si>
-  <si>
-    <t>Ver tutoriales de bases de datos y leer el material de la materia de bases de datos que ya cursamos.</t>
-  </si>
-  <si>
     <t>Los diseños de los ciclos sean incorrectos.</t>
   </si>
   <si>
@@ -166,24 +139,12 @@
     <t>Regresar al punto de la primer aprobación y rediseñar y construir los módulos incorrectos.</t>
   </si>
   <si>
-    <t>No poder realizar:
--El modelo entidad-relación, 
--El modelo relacional
--Programación de la base de datos.</t>
-  </si>
-  <si>
     <t>Retraso del avance del proyecto.</t>
   </si>
   <si>
     <t>Retraso en el trabajo individual del equipo.</t>
   </si>
   <si>
-    <t>Trabajar.</t>
-  </si>
-  <si>
-    <t>Apoyar al integrante del equipo que esté en la situación hasta que empareje su trabajo al plan.</t>
-  </si>
-  <si>
     <t>Las juntas de estatus no estén respaldadas con información real sobre el avance del proyecto.</t>
   </si>
   <si>
@@ -203,6 +164,21 @@
   </si>
   <si>
     <t>EARG</t>
+  </si>
+  <si>
+    <t>Trabajar en tiempo y forma en nuestras tareas.</t>
+  </si>
+  <si>
+    <t>Apoyar al integrante del equipo que esté en la situación hasta que empareje su trabajo de acuerdo al plan.</t>
+  </si>
+  <si>
+    <t>Tener mal realizado el modelo de entidad-relación.</t>
+  </si>
+  <si>
+    <t>Preparar modelo entidad-relación verificando entidades y relaciones una por una al momento de la creación.</t>
+  </si>
+  <si>
+    <t>Acudir a junta con un experto para que nos ayude a la correción del modelo.</t>
   </si>
 </sst>
 </file>
@@ -270,7 +246,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,14 +271,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -339,51 +309,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -423,26 +348,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -451,13 +421,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -469,80 +437,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -679,7 +578,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -687,25 +586,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -720,38 +610,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -759,61 +634,52 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -823,7 +689,43 @@
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1294,557 +1196,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P20"/>
+  <dimension ref="B1:P10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="11" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="50.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3" style="8" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="50.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="60.7109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="12"/>
-    <col min="13" max="13" width="9.7109375" style="11" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="11" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="11" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="11" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="11"/>
+    <col min="9" max="10" width="60.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="9"/>
+    <col min="13" max="13" width="9.7109375" style="8" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="8" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="8" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13" t="s">
+      <c r="B2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="13" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>2</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="F3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="22" t="s">
+      <c r="G3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="H3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="M3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="23"/>
-      <c r="C4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="8" t="s">
+      <c r="J4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="5" spans="2:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23">
+    <row r="5" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="24">
-        <v>42047</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="32" t="s">
+      <c r="C5" s="16">
+        <v>42062</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="H5" s="23">
+        <f t="shared" ref="H5:H10" si="0">IF(F5="Alta",3,IF(F5="Media", 2, IF(F5="Baja",1, 0)))*IF(G5="Alta",3,IF(G5="Media", 2, IF(G5="Baja",1, 0)))</f>
         <v>6</v>
       </c>
-      <c r="H5" s="31">
-        <f>IF(F5="Alta",3,IF(F5="Media", 2, IF(F5="Baja",1, 0)))*IF(G5="Alta",3,IF(G5="Media", 2, IF(G5="Baja",1, 0)))</f>
-        <v>3</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="I5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="2:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9">
+    <row r="6" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="20">
-        <v>42046</v>
-      </c>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="13">
+        <v>42047</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="31">
-        <f t="shared" ref="H6:H11" si="0">IF(F6="Alta",3,IF(F6="Media", 2, IF(F6="Baja",1, 0)))*IF(G6="Alta",3,IF(G6="Media", 2, IF(G6="Baja",1, 0)))</f>
-        <v>6</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <f>B6+1</f>
         <v>3</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="13">
         <v>42047</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
+        <f>B7+1</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="13">
+        <v>42047</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="31">
+      <c r="F8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="9">
-        <f>B7+1</f>
-        <v>4</v>
-      </c>
-      <c r="C8" s="20">
-        <v>42047</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="31">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K8" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <f>B8+1</f>
         <v>5</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="28">
         <v>42047</v>
       </c>
-      <c r="D9" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="31">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="9">
-        <f>B9+1</f>
-        <v>6</v>
-      </c>
-      <c r="C10" s="39">
-        <v>42047</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="31">
+      <c r="G9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>61</v>
+      <c r="I9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="9">
-        <f t="shared" ref="B11:B20" si="1">B10+1</f>
-        <v>7</v>
-      </c>
-      <c r="C11" s="20">
+    <row r="10" spans="2:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
+        <f t="shared" ref="B10" si="1">B9+1</f>
+        <v>6</v>
+      </c>
+      <c r="C10" s="13">
         <v>42047</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="31">
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16">
-        <f t="shared" ref="H12:H20" si="2">IF(F12="Alta",3,IF(F12="Media", 2, IF(F12="Baja",1, 0)))*IF(G12="Alta",3,IF(G12="Media", 2, IF(G12="Baja",1, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="9">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="9">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="9">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="9">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="9">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="9">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="9">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
+      <c r="I10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1852,16 +1542,16 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H4:H20">
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="H4:H10">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="between">
       <formula>7</formula>
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="between">
       <formula>4</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -1877,9 +1567,9 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="1082" yWindow="336" count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rojo: Requiere acción urgente._x000a_Amarillo: Requiere monitoreo constante._x000a_Verde: Se encuentra bajo control." sqref="H4:H20"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:G20">
-      <formula1>$N$3:$N$6</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rojo: Requiere acción urgente._x000a_Amarillo: Requiere monitoreo constante._x000a_Verde: Se encuentra bajo control." sqref="H4:H10"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:G10">
+      <formula1>$N$3:$N$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="1" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3CM1_IS_Plan_de_riesgos_SYMONA.xlsx
+++ b/3CM1_IS_Plan_de_riesgos_SYMONA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Aceptado</t>
   </si>
@@ -145,18 +145,6 @@
     <t>Retraso en el trabajo individual del equipo.</t>
   </si>
   <si>
-    <t>Las juntas de estatus no estén respaldadas con información real sobre el avance del proyecto.</t>
-  </si>
-  <si>
-    <t>No tener el control del avance del proyecto ni del plan de riesgos.</t>
-  </si>
-  <si>
-    <t>Documentar nuestros avances individualmente.</t>
-  </si>
-  <si>
-    <t>Que el compañero que este en dicha situación mejore el control de sus tiempos y documente su avance.</t>
-  </si>
-  <si>
     <t>OJG</t>
   </si>
   <si>
@@ -179,6 +167,15 @@
   </si>
   <si>
     <t>Acudir a junta con un experto para que nos ayude a la correción del modelo.</t>
+  </si>
+  <si>
+    <t>La base de datos será incorrecta.</t>
+  </si>
+  <si>
+    <t>El diseño de los prototipos no satisfaga las necesidades del cliente.</t>
+  </si>
+  <si>
+    <t>Los módulos no tendrán el diseño deseado el cliente.</t>
   </si>
 </sst>
 </file>
@@ -578,7 +575,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -663,9 +660,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -689,43 +683,7 @@
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -1198,7 +1156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1221,22 +1181,22 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="29" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="33"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="9"/>
       <c r="M2" s="10" t="s">
         <v>7</v>
@@ -1339,9 +1299,11 @@
         <v>42062</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1349,17 +1311,17 @@
         <v>4</v>
       </c>
       <c r="H5" s="23">
-        <f t="shared" ref="H5:H10" si="0">IF(F5="Alta",3,IF(F5="Media", 2, IF(F5="Baja",1, 0)))*IF(G5="Alta",3,IF(G5="Media", 2, IF(G5="Baja",1, 0)))</f>
+        <f t="shared" ref="H5:H7" si="0">IF(F5="Alta",3,IF(F5="Media", 2, IF(F5="Baja",1, 0)))*IF(G5="Alta",3,IF(G5="Media", 2, IF(G5="Baja",1, 0)))</f>
         <v>6</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1397,7 +1359,7 @@
         <v>32</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1431,10 +1393,10 @@
         <v>36</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6">
         <f>B7+1</f>
         <v>4</v>
@@ -1455,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="23">
-        <f t="shared" si="0"/>
+        <f>IF(F8="Alta",3,IF(F8="Media", 2, IF(F8="Baja",1, 0)))*IF(G8="Alta",3,IF(G8="Media", 2, IF(G8="Baja",1, 0)))</f>
         <v>3</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -1465,7 +1427,7 @@
         <v>40</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1473,7 +1435,7 @@
         <f>B8+1</f>
         <v>5</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="13">
         <v>42047</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1489,52 +1451,43 @@
         <v>4</v>
       </c>
       <c r="H9" s="23">
-        <f t="shared" si="0"/>
+        <f>IF(F9="Alta",3,IF(F9="Media", 2, IF(F9="Baja",1, 0)))*IF(G9="Alta",3,IF(G9="Media", 2, IF(G9="Baja",1, 0)))</f>
         <v>4</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="6">
-        <f t="shared" ref="B10" si="1">B9+1</f>
+    <row r="10" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="27">
+        <f>B9+1</f>
         <v>6</v>
       </c>
       <c r="C10" s="13">
-        <v>42047</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="11" t="s">
+        <v>42069</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1542,16 +1495,16 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="H4:H9">
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="between">
       <formula>7</formula>
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="between">
       <formula>4</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>3</formula>
     </cfRule>
@@ -1567,7 +1520,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="1082" yWindow="336" count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rojo: Requiere acción urgente._x000a_Amarillo: Requiere monitoreo constante._x000a_Verde: Se encuentra bajo control." sqref="H4:H10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rojo: Requiere acción urgente._x000a_Amarillo: Requiere monitoreo constante._x000a_Verde: Se encuentra bajo control." sqref="H4:H9"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:G10">
       <formula1>$N$3:$N$4</formula1>
     </dataValidation>
